--- a/docs/designs/Burndown/Burndown_Template_v4.xlsx
+++ b/docs/designs/Burndown/Burndown_Template_v4.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C139691-BE5A-46A8-8F3D-44DEE520E59F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3375" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-3375" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Story1" sheetId="2" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <definedName name="sprint1_start">Story1!$N$2</definedName>
     <definedName name="sprint1_target">Story1!$I$39</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,12 +31,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{2C491D57-2A62-4469-8EF3-1D3D85FCAC80}">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>Todo</t>
   </si>
@@ -270,12 +269,15 @@
   </si>
   <si>
     <t>Dev3</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -615,12 +617,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -629,6 +625,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -896,7 +898,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -935,6 +937,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1000,46 +1003,46 @@
             <c:numRef>
               <c:f>Story1!$M$5:$M$17</c:f>
               <c:numCache>
-                <c:formatCode>yyyy-mm-dd</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>43525</c:v>
+                  <c:v>43640</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43525.17</c:v>
+                  <c:v>43641.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43525.34</c:v>
+                  <c:v>43643</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43525.51</c:v>
+                  <c:v>43644.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43525.68</c:v>
+                  <c:v>43646</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43525.85</c:v>
+                  <c:v>43647.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43526.02</c:v>
+                  <c:v>43649</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43526.19</c:v>
+                  <c:v>43650.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43526.36</c:v>
+                  <c:v>43652</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43526.53</c:v>
+                  <c:v>43653.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43526.7</c:v>
+                  <c:v>43655</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43526.87</c:v>
+                  <c:v>43656.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43527.040000000001</c:v>
+                  <c:v>43658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1060,7 +1063,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1496-46E5-B88E-01057019951F}"/>
             </c:ext>
@@ -1096,46 +1099,46 @@
             <c:numRef>
               <c:f>Story1!$M$5:$M$17</c:f>
               <c:numCache>
-                <c:formatCode>yyyy-mm-dd</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>43525</c:v>
+                  <c:v>43640</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43525.17</c:v>
+                  <c:v>43641.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43525.34</c:v>
+                  <c:v>43643</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43525.51</c:v>
+                  <c:v>43644.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43525.68</c:v>
+                  <c:v>43646</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43525.85</c:v>
+                  <c:v>43647.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43526.02</c:v>
+                  <c:v>43649</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43526.19</c:v>
+                  <c:v>43650.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43526.36</c:v>
+                  <c:v>43652</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43526.53</c:v>
+                  <c:v>43653.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43526.7</c:v>
+                  <c:v>43655</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43526.87</c:v>
+                  <c:v>43656.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43527.040000000001</c:v>
+                  <c:v>43658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1189,7 +1192,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1496-46E5-B88E-01057019951F}"/>
             </c:ext>
@@ -1204,17 +1207,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="31022911"/>
-        <c:axId val="60887135"/>
+        <c:axId val="180947920"/>
+        <c:axId val="180948312"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="31022911"/>
+        <c:axId val="180947920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy-mm-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1251,14 +1254,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60887135"/>
+        <c:crossAx val="180948312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="60887135"/>
+        <c:axId val="180948312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1312,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31022911"/>
+        <c:crossAx val="180947920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1323,6 +1326,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1965,7 +1969,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08593939-DB3E-4F0E-950B-87A7835F5EE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08593939-DB3E-4F0E-950B-87A7835F5EE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1987,31 +1991,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CCBDD212-65F4-451C-9F45-EF037770D508}" name="Table1" displayName="Table1" ref="B21:G36" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="B21:G36" xr:uid="{B05A7B27-0ECF-4B6A-B913-CB3742613ED6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B21:G36" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="B21:G36"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1711E6F0-4639-4998-99CD-6C8FAA404A0B}" name="No" dataDxfId="12">
+    <tableColumn id="1" name="No" dataDxfId="12">
       <calculatedColumnFormula>B21+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{428E28ED-3A5D-4400-816D-83AE8AA8FFBD}" name="Task" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{563A4EB0-2B6A-4D47-94E4-94116A8C3831}" name="Asigned" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{5CE22786-243A-459A-9777-0402AB471551}" name="Done" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{45BCF3FC-EDAA-400A-AC2A-4A74CB2CA099}" name="Tested" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{C3F4C3B0-DD36-47A4-8008-ED4DA11AF099}" name="Verified" dataDxfId="7"/>
+    <tableColumn id="2" name="Task" dataDxfId="11"/>
+    <tableColumn id="3" name="Asigned" dataDxfId="10"/>
+    <tableColumn id="4" name="Done" dataDxfId="9"/>
+    <tableColumn id="5" name="Tested" dataDxfId="8"/>
+    <tableColumn id="6" name="Verified" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{85AB8A2C-C05D-4184-BBD0-44916944D3D1}" name="Table356" displayName="Table356" ref="M4:O17" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="M4:O17" xr:uid="{B4E47BE6-B706-48D2-9A58-EF844AA63D10}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table356" displayName="Table356" ref="M4:O17" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="M4:O17"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{21AB817D-3FA6-45D0-AE28-7DB75AF351BD}" name="Date" dataDxfId="2">
+    <tableColumn id="1" name="Date" dataDxfId="2">
       <calculatedColumnFormula>sprint1_start +L5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A4DE0FF1-8DF7-4C5D-8133-416899B01540}" name="Target" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{6B645165-7342-41BB-B2F5-FCAE0876A18A}" name="Actual" dataDxfId="0">
+    <tableColumn id="2" name="Target" dataDxfId="1"/>
+    <tableColumn id="3" name="Actual" dataDxfId="0">
       <calculatedColumnFormula>sprint1_target-Q5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2095,23 +2099,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2147,23 +2134,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2339,11 +2309,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,7 +2361,7 @@
         <v>10</v>
       </c>
       <c r="U1" s="29" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="V1" s="29" t="s">
         <v>21</v>
@@ -2408,30 +2378,30 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="M2" s="30">
-        <v>0.17</v>
+        <v>1.5</v>
       </c>
       <c r="N2" s="31">
-        <v>43525</v>
+        <v>43640</v>
       </c>
       <c r="O2" s="40">
         <f>sprint1_start + (sprint1_interval*12)</f>
-        <v>43527.040000000001</v>
+        <v>43658</v>
       </c>
       <c r="P2" s="27">
         <f>DATEDIF(N2,O2,"d")+1</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="27">
         <f ca="1">DATEDIF(N3,O2,"d")</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="R2" s="18">
         <f>I39/P2</f>
-        <v>15.333333333333334</v>
+        <v>2.4210526315789473</v>
       </c>
       <c r="S2" s="32">
         <f ca="1">(P2-Q2)*R2</f>
-        <v>46</v>
+        <v>2.4210526315789473</v>
       </c>
       <c r="U2" s="1">
         <v>1</v>
@@ -2456,7 +2426,7 @@
       </c>
       <c r="N3" s="26">
         <f ca="1">NOW()</f>
-        <v>43527.40311712963</v>
+        <v>43640.377618402781</v>
       </c>
       <c r="O3" s="13"/>
       <c r="P3" s="2"/>
@@ -2519,7 +2489,7 @@
       </c>
       <c r="M5" s="17">
         <f t="shared" ref="M5:M17" si="1">sprint1_start +L5</f>
-        <v>43525</v>
+        <v>43640</v>
       </c>
       <c r="N5" s="10">
         <f>sprint1_target</f>
@@ -2552,11 +2522,11 @@
     <row r="6" spans="9:24" x14ac:dyDescent="0.25">
       <c r="L6" s="18">
         <f t="shared" ref="L6:L17" si="3">L5+sprint1_interval</f>
-        <v>0.17</v>
+        <v>1.5</v>
       </c>
       <c r="M6" s="17">
         <f t="shared" si="1"/>
-        <v>43525.17</v>
+        <v>43641.5</v>
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="20">
@@ -2572,7 +2542,7 @@
       </c>
       <c r="R6" s="18">
         <f t="shared" ref="R6:R17" si="4">(sprint1_target/12) *L6</f>
-        <v>0.65166666666666673</v>
+        <v>5.75</v>
       </c>
       <c r="U6" s="1">
         <v>4</v>
@@ -2592,11 +2562,11 @@
     <row r="7" spans="9:24" x14ac:dyDescent="0.25">
       <c r="L7" s="18">
         <f t="shared" si="3"/>
-        <v>0.34</v>
+        <v>3</v>
       </c>
       <c r="M7" s="17">
         <f t="shared" si="1"/>
-        <v>43525.34</v>
+        <v>43643</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="20">
@@ -2613,17 +2583,17 @@
       </c>
       <c r="R7" s="18">
         <f t="shared" si="4"/>
-        <v>1.3033333333333335</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="8" spans="9:24" x14ac:dyDescent="0.25">
       <c r="L8" s="18">
         <f t="shared" si="3"/>
-        <v>0.51</v>
+        <v>4.5</v>
       </c>
       <c r="M8" s="17">
         <f t="shared" si="1"/>
-        <v>43525.51</v>
+        <v>43644.5</v>
       </c>
       <c r="N8" s="10"/>
       <c r="O8" s="20">
@@ -2639,17 +2609,17 @@
       </c>
       <c r="R8" s="18">
         <f t="shared" si="4"/>
-        <v>1.9550000000000001</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="9" spans="9:24" x14ac:dyDescent="0.25">
       <c r="L9" s="18">
         <f t="shared" si="3"/>
-        <v>0.68</v>
+        <v>6</v>
       </c>
       <c r="M9" s="17">
         <f t="shared" si="1"/>
-        <v>43525.68</v>
+        <v>43646</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="20">
@@ -2665,17 +2635,17 @@
       </c>
       <c r="R9" s="18">
         <f t="shared" si="4"/>
-        <v>2.6066666666666669</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="9:24" x14ac:dyDescent="0.25">
       <c r="L10" s="18">
         <f t="shared" si="3"/>
-        <v>0.85000000000000009</v>
+        <v>7.5</v>
       </c>
       <c r="M10" s="17">
         <f t="shared" si="1"/>
-        <v>43525.85</v>
+        <v>43647.5</v>
       </c>
       <c r="N10" s="10"/>
       <c r="O10" s="20">
@@ -2691,17 +2661,17 @@
       </c>
       <c r="R10" s="18">
         <f t="shared" si="4"/>
-        <v>3.2583333333333337</v>
+        <v>28.75</v>
       </c>
     </row>
     <row r="11" spans="9:24" x14ac:dyDescent="0.25">
       <c r="L11" s="18">
         <f t="shared" si="3"/>
-        <v>1.02</v>
+        <v>9</v>
       </c>
       <c r="M11" s="17">
         <f t="shared" si="1"/>
-        <v>43526.02</v>
+        <v>43649</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="20">
@@ -2717,17 +2687,17 @@
       </c>
       <c r="R11" s="18">
         <f t="shared" si="4"/>
-        <v>3.91</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="12" spans="9:24" x14ac:dyDescent="0.25">
       <c r="L12" s="18">
         <f t="shared" si="3"/>
-        <v>1.19</v>
+        <v>10.5</v>
       </c>
       <c r="M12" s="17">
         <f t="shared" si="1"/>
-        <v>43526.19</v>
+        <v>43650.5</v>
       </c>
       <c r="N12" s="10"/>
       <c r="O12" s="20">
@@ -2743,17 +2713,17 @@
       </c>
       <c r="R12" s="18">
         <f t="shared" si="4"/>
-        <v>4.5616666666666665</v>
+        <v>40.25</v>
       </c>
     </row>
     <row r="13" spans="9:24" x14ac:dyDescent="0.25">
       <c r="L13" s="18">
         <f t="shared" si="3"/>
-        <v>1.3599999999999999</v>
+        <v>12</v>
       </c>
       <c r="M13" s="17">
         <f t="shared" si="1"/>
-        <v>43526.36</v>
+        <v>43652</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="20">
@@ -2769,17 +2739,17 @@
       </c>
       <c r="R13" s="18">
         <f t="shared" si="4"/>
-        <v>5.2133333333333329</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="9:24" x14ac:dyDescent="0.25">
       <c r="L14" s="18">
         <f t="shared" si="3"/>
-        <v>1.5299999999999998</v>
+        <v>13.5</v>
       </c>
       <c r="M14" s="17">
         <f t="shared" si="1"/>
-        <v>43526.53</v>
+        <v>43653.5</v>
       </c>
       <c r="N14" s="10"/>
       <c r="O14" s="20">
@@ -2795,17 +2765,17 @@
       </c>
       <c r="R14" s="18">
         <f t="shared" si="4"/>
-        <v>5.8649999999999993</v>
+        <v>51.75</v>
       </c>
     </row>
     <row r="15" spans="9:24" x14ac:dyDescent="0.25">
       <c r="L15" s="18">
         <f t="shared" si="3"/>
-        <v>1.6999999999999997</v>
+        <v>15</v>
       </c>
       <c r="M15" s="17">
         <f t="shared" si="1"/>
-        <v>43526.7</v>
+        <v>43655</v>
       </c>
       <c r="N15" s="10"/>
       <c r="O15" s="20">
@@ -2821,17 +2791,17 @@
       </c>
       <c r="R15" s="18">
         <f t="shared" si="4"/>
-        <v>6.5166666666666657</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="16" spans="9:24" x14ac:dyDescent="0.25">
       <c r="L16" s="18">
         <f t="shared" si="3"/>
-        <v>1.8699999999999997</v>
+        <v>16.5</v>
       </c>
       <c r="M16" s="17">
         <f t="shared" si="1"/>
-        <v>43526.87</v>
+        <v>43656.5</v>
       </c>
       <c r="N16" s="10"/>
       <c r="O16" s="20">
@@ -2847,17 +2817,17 @@
       </c>
       <c r="R16" s="18">
         <f t="shared" si="4"/>
-        <v>7.1683333333333321</v>
+        <v>63.25</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="L17" s="18">
         <f t="shared" si="3"/>
-        <v>2.0399999999999996</v>
+        <v>18</v>
       </c>
       <c r="M17" s="19">
         <f t="shared" si="1"/>
-        <v>43527.040000000001</v>
+        <v>43658</v>
       </c>
       <c r="N17" s="21">
         <v>0</v>
@@ -2875,7 +2845,7 @@
       </c>
       <c r="R17" s="18">
         <f t="shared" si="4"/>
-        <v>7.8199999999999985</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -2888,15 +2858,15 @@
       <c r="R18" s="33"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -3152,7 +3122,7 @@
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="49" t="s">
+      <c r="E38" s="47" t="s">
         <v>58</v>
       </c>
       <c r="F38" s="1">
@@ -3174,11 +3144,11 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="44" t="str">
+      <c r="A39" s="50" t="str">
         <f>A20</f>
         <v>Story1:Todo</v>
       </c>
-      <c r="B39" s="44"/>
+      <c r="B39" s="50"/>
       <c r="C39" s="1">
         <f>COUNTA(C22:C36)</f>
         <v>15</v>
@@ -3269,7 +3239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EAD6D6-A384-4AEA-8AC2-BBE5FFB636DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3283,7 +3253,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>39</v>
       </c>
       <c r="B1" t="s">
@@ -3296,7 +3266,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="48" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3306,49 +3276,49 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="46"/>
       <c r="B5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+      <c r="A6" s="46"/>
       <c r="B6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
+      <c r="A8" s="46"/>
       <c r="B8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="46"/>
       <c r="B9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="46"/>
       <c r="B10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
+      <c r="A11" s="46"/>
       <c r="B11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="12" t="s">
         <v>48</v>
       </c>
@@ -3364,25 +3334,25 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
+      <c r="A15" s="46"/>
       <c r="B15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
+      <c r="A16" s="46"/>
       <c r="B16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
+      <c r="A17" s="46"/>
       <c r="B17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
+      <c r="A18" s="46"/>
       <c r="B18" t="s">
         <v>53</v>
       </c>
@@ -3424,7 +3394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60861CDF-960E-4F70-9B42-1E7C1BF100C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3438,7 +3408,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>39</v>
       </c>
       <c r="B1" t="s">
@@ -3451,22 +3421,22 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="49" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="44" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="45" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="44" t="s">
         <v>64</v>
       </c>
     </row>
